--- a/thesaurus/Thesaurus.xlsx
+++ b/thesaurus/Thesaurus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\thesaurus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\trabajoInvestigacion\thesaurus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Fórmula</t>
   </si>
   <si>
-    <t>http://scielo.sld.cu/scielo.php?pid=S2227-18992019000100143&amp;script=sci_arttext</t>
-  </si>
-  <si>
     <t>"Patrones de Arquitectura" and "Arquitectura de Software"</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Análisis comparativo de patrones de diseño de software para el desarrollo de aplicaciones móviles de calidad: Una revisión sistemática de la literatura</t>
+  </si>
+  <si>
+    <t>https://repositorio.upeu.edu.pe/server/api/core/bitstreams/2107746c-809f-4619-8152-4eb578af9b27/content</t>
   </si>
 </sst>
 </file>
@@ -613,9 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,22 +665,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="20">
         <v>45607</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="22">
         <v>846</v>
@@ -694,22 +694,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="20">
         <v>41954</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="22">
         <v>1250</v>
@@ -1148,7 +1148,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>

--- a/thesaurus/Thesaurus.xlsx
+++ b/thesaurus/Thesaurus.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="25">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -71,14 +71,6 @@
     <t>Fórmula</t>
   </si>
   <si>
-    <t>"Patrones de Arquitectura" and "Arquitectura de Software"</t>
-  </si>
-  <si>
-    <t>Lenguajes de Patrones de Arquitectura de
-Software: Una Aproximación Al Estado
-del Arte</t>
-  </si>
-  <si>
     <t>https://www.redalyc.org/pdf/849/84933912003.pdf</t>
   </si>
   <si>
@@ -95,6 +87,30 @@
   </si>
   <si>
     <t>https://repositorio.upeu.edu.pe/server/api/core/bitstreams/2107746c-809f-4619-8152-4eb578af9b27/content</t>
+  </si>
+  <si>
+    <t>Recomendaciones para la Formación de una Empresa de Desarrollo de Software Competitiva en un País como Colombia</t>
+  </si>
+  <si>
+    <t>https://revistas.unal.edu.co/index.php/avances/article/view/93555/78241</t>
+  </si>
+  <si>
+    <t>Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>"arquitectura de software"</t>
+  </si>
+  <si>
+    <t>https://www.fceia.unr.edu.ar/~mcristia/Introduccion_a_la_Arquitectura_de_Software.pdf</t>
+  </si>
+  <si>
+    <t>Introduccion a la Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>Technical Report</t>
+  </si>
+  <si>
+    <t>Lenguajes de Patrones de Arquitectura de Software: Una aproximación al Estado del Arte</t>
   </si>
 </sst>
 </file>
@@ -216,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,10 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -290,10 +302,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,9 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="49" zoomScaleNormal="115" zoomScaleSheetLayoutView="49" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +640,7 @@
     <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -660,27 +672,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="20">
         <v>45607</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="22">
         <v>846</v>
@@ -689,405 +701,749 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+    <row r="3" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="22">
+        <v>846</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20">
-        <v>41954</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="F5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="22">
-        <v>1250</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="24"/>
+      <c r="H17" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="20">
+        <v>41954</v>
+      </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="19"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="20">
+        <v>41954</v>
+      </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="19"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="27">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="20">
+        <v>41954</v>
+      </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="19"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="24"/>
+      <c r="H20" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="23"/>
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="19"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G22" s="19"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
+      <c r="B23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="19"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="24"/>
+      <c r="H23" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G24" s="19"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="24"/>
+      <c r="H24" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G25" s="19"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="24"/>
+      <c r="H25" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="23"/>
+      <c r="B26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="19"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="24"/>
+      <c r="H26" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="19"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="23"/>
+      <c r="B28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G28" s="19"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="24"/>
+      <c r="H28" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="30">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23"/>
+      <c r="B29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" s="19"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="24"/>
+      <c r="H29" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="23"/>
+      <c r="B30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="19"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="24"/>
+      <c r="H30" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="30">
+      <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="23"/>
+      <c r="B31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="G31" s="19"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="24"/>
+      <c r="H31" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="26"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
       <c r="H32" s="1"/>
@@ -1098,7 +1454,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="11"/>
@@ -1109,7 +1465,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="5"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
@@ -1120,7 +1476,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="11"/>
@@ -1131,7 +1487,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="5"/>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
@@ -1142,7 +1498,7 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="5"/>
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>

--- a/thesaurus/Thesaurus.xlsx
+++ b/thesaurus/Thesaurus.xlsx
@@ -86,9 +86,6 @@
     <t>Análisis comparativo de patrones de diseño de software para el desarrollo de aplicaciones móviles de calidad: Una revisión sistemática de la literatura</t>
   </si>
   <si>
-    <t>https://repositorio.upeu.edu.pe/server/api/core/bitstreams/2107746c-809f-4619-8152-4eb578af9b27/content</t>
-  </si>
-  <si>
     <t>Recomendaciones para la Formación de una Empresa de Desarrollo de Software Competitiva en un País como Colombia</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Lenguajes de Patrones de Arquitectura de Software: Una aproximación al Estado del Arte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -625,9 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="49" zoomScaleNormal="115" zoomScaleSheetLayoutView="49" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="86" zoomScaleNormal="115" zoomScaleSheetLayoutView="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +686,7 @@
         <v>45607</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>14</v>
@@ -715,13 +715,13 @@
         <v>41954</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="22">
         <v>846</v>
@@ -735,28 +735,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20">
+        <v>41954</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20">
-        <v>41954</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="28">
+        <v>20500</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="28">
-        <v>20500</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -764,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="20">
         <v>41954</v>
@@ -779,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="28">
         <v>20500</v>
@@ -793,10 +793,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="20">
         <v>41954</v>
@@ -818,10 +818,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="20">
         <v>41954</v>
@@ -843,10 +843,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="20">
         <v>41954</v>
@@ -868,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="20">
         <v>41954</v>
@@ -893,10 +893,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="20">
         <v>41954</v>
@@ -918,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="20">
         <v>41954</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="20">
         <v>41954</v>
@@ -968,10 +968,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="20">
         <v>41954</v>
@@ -993,10 +993,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="20">
         <v>41954</v>
@@ -1018,10 +1018,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="20">
         <v>41954</v>
@@ -1043,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="20">
         <v>41954</v>
@@ -1068,10 +1068,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="20">
         <v>41954</v>
@@ -1093,10 +1093,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="20">
         <v>41954</v>
@@ -1118,10 +1118,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="20">
         <v>41954</v>
@@ -1143,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="20">
         <v>41954</v>
@@ -1168,10 +1168,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="20">
         <v>41954</v>
@@ -1193,10 +1193,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="20">
         <v>41954</v>
@@ -1218,10 +1218,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="20">
         <v>41954</v>
@@ -1243,10 +1243,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="20">
         <v>41954</v>
@@ -1268,10 +1268,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="20">
         <v>41954</v>
@@ -1293,10 +1293,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="20">
         <v>41954</v>
@@ -1318,10 +1318,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="20">
         <v>41954</v>
@@ -1343,10 +1343,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="20">
         <v>41954</v>
@@ -1368,10 +1368,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="20">
         <v>41954</v>
@@ -1393,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="20">
         <v>41954</v>
@@ -1418,10 +1418,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="20">
         <v>41954</v>
@@ -1602,7 +1602,7 @@
   <hyperlinks>
     <hyperlink ref="E38" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://repositorio.upeu.edu.pe/server/api/core/bitstreams/2107746c-809f-4619-8152-4eb578af9b27/content"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
